--- a/NetworkModels/network_Nahman_Peric_2S23H.xlsx
+++ b/NetworkModels/network_Nahman_Peric_2S23H.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbail\SynologyDrive\Doc\DNEP\network_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manoncornet/Documents/University/TFE/Bilevel_DNEP/NetworkModels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FF50DA-EED4-4EFF-8F3C-7A9F3F2BD310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3A3707-E80F-484C-ACCF-94672C86F0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="2" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>idx</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>max_i_ka</t>
   </si>
   <si>
@@ -128,10 +125,13 @@
     <t>Tulip</t>
   </si>
   <si>
-    <t>Poppy AAC (1/0)</t>
+    <t>Poppy</t>
   </si>
   <si>
-    <t>Oxlip AAC (4/0)</t>
+    <t>Oxlip</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -297,7 +297,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -371,7 +371,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-BE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -637,7 +637,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="71333439"/>
@@ -701,7 +701,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="71331711"/>
@@ -743,7 +743,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-BE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -780,7 +780,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-BE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1389,9 +1389,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1429,9 +1429,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1464,26 +1464,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1516,26 +1499,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1712,18 +1678,18 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1715,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1773,7 +1739,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1797,7 +1763,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1821,7 +1787,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1845,7 +1811,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1869,7 +1835,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1893,7 +1859,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1917,7 +1883,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1941,7 +1907,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1965,7 +1931,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1989,7 +1955,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2013,7 +1979,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2037,7 +2003,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2061,7 +2027,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2085,7 +2051,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2109,7 +2075,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2133,7 +2099,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2157,7 +2123,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2181,7 +2147,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2205,7 +2171,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2229,7 +2195,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2253,7 +2219,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2277,7 +2243,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2301,11 +2267,11 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
     </row>
   </sheetData>
@@ -2319,19 +2285,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2353,7 +2319,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2368,7 +2334,7 @@
         <v>0.20209156340629467</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2383,7 +2349,7 @@
         <v>0.69727756309808198</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2398,7 +2364,7 @@
         <v>0.42970804041814203</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2413,7 +2379,7 @@
         <v>0.59489326773800433</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2428,7 +2394,7 @@
         <v>0.73026707443236061</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2443,7 +2409,7 @@
         <v>0.55500000000000027</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2458,7 +2424,7 @@
         <v>0.58265770397378303</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2473,7 +2439,7 @@
         <v>0.94828740369151776</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2488,7 +2454,7 @@
         <v>0.69244638781641432</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2503,7 +2469,7 @@
         <v>0.63940988419010258</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2518,7 +2484,7 @@
         <v>0.50527022473128158</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2533,7 +2499,7 @@
         <v>0.62291331660191596</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2548,7 +2514,7 @@
         <v>0.60686901387366909</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2563,7 +2529,7 @@
         <v>0.57113571066778956</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2578,7 +2544,7 @@
         <v>0.98085370978551201</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2593,7 +2559,7 @@
         <v>0.44113036621842255</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2608,7 +2574,7 @@
         <v>0.44820754121277356</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2623,7 +2589,7 @@
         <v>0.6785521350640642</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2638,7 +2604,7 @@
         <v>0.48604217923962084</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2653,7 +2619,7 @@
         <v>0.64091185041314391</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2668,7 +2634,7 @@
         <v>1.0161678011037347</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2683,7 +2649,7 @@
         <v>0.94020423313235557</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2698,7 +2664,7 @@
         <v>1.5016793932128123</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2713,7 +2679,7 @@
         <v>0.8177200009783302</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2728,7 +2694,7 @@
         <v>1.1751774334116523</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2743,7 +2709,7 @@
         <v>0.81807151276645695</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2758,7 +2724,7 @@
         <v>0.68661270014470388</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2773,7 +2739,7 @@
         <v>7.5604232685742886E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2788,7 +2754,7 @@
         <v>2.0566501890209707</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2803,7 +2769,7 @@
         <v>2.305265494471298</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2818,7 +2784,7 @@
         <v>3.4479473603870456</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2833,7 +2799,7 @@
         <v>1.8201593336848283</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2848,7 +2814,7 @@
         <v>2.7079102643920816</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2863,28 +2829,28 @@
         <v>4.2236879619593113</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
     </row>
   </sheetData>
@@ -2898,32 +2864,32 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2932,18 +2898,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>9.35</v>
@@ -2964,12 +2930,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>13.26</v>
@@ -2990,12 +2956,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>14.88</v>
@@ -3016,12 +2982,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>16.920000000000002</v>
@@ -3042,148 +3008,148 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
     </row>
   </sheetData>

--- a/NetworkModels/network_Nahman_Peric_2S23H.xlsx
+++ b/NetworkModels/network_Nahman_Peric_2S23H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manoncornet/Documents/University/TFE/Bilevel_DNEP/NetworkModels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3A3707-E80F-484C-ACCF-94672C86F0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03861440-77DC-0049-88C5-922C6A4EB50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="2" r:id="rId1"/>
@@ -1677,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2863,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC3A51A-940B-C84F-8BEB-E5CE6E0F1306}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/NetworkModels/network_Nahman_Peric_2S23H.xlsx
+++ b/NetworkModels/network_Nahman_Peric_2S23H.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manoncornet/Documents/University/TFE/Bilevel_DNEP/NetworkModels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03861440-77DC-0049-88C5-922C6A4EB50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE330B-9FDC-EA45-A1BB-13D7C2F305FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="2" r:id="rId1"/>
@@ -413,10 +413,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>8.5250000000000004</c:v>
+                  <c:v>8.8249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4</c:v>
+                  <c:v>8.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.0109999999999992</c:v>
@@ -470,7 +470,7 @@
                   <c:v>8.8680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.8249999999999993</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>9.0389999999999997</c:v>
@@ -536,7 +536,7 @@
                   <c:v>4.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5549999999999997</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5.5979999999999999</c:v>
@@ -548,7 +548,7 @@
                   <c:v>5.7830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.5119999999999996</c:v>
+                  <c:v>6.2119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5.2549999999999999</c:v>
@@ -1677,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1723,7 +1723,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>8.5250000000000004</v>
+        <v>8.8249999999999993</v>
       </c>
       <c r="D2">
         <v>6.0549999999999997</v>
@@ -1747,7 +1747,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>8.4</v>
+        <v>8.85</v>
       </c>
       <c r="D3">
         <v>8.1999999999999993</v>
@@ -2086,7 +2086,7 @@
         <v>9.3249999999999993</v>
       </c>
       <c r="D17">
-        <v>6.5549999999999997</v>
+        <v>6.6</v>
       </c>
       <c r="E17">
         <v>0.32</v>
@@ -2179,10 +2179,10 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>8.8249999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="D21">
-        <v>6.5119999999999996</v>
+        <v>6.2119999999999997</v>
       </c>
       <c r="E21">
         <v>0.32</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="D2" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">SQRT((INDIRECT(ADDRESS(C2+1,3,,,"bus")) - INDIRECT(ADDRESS(B2+1,3,,,"bus")))^2 + (INDIRECT(ADDRESS(C2+1,4,,,"bus")) - INDIRECT(ADDRESS(B2+1,4,,,"bus")))^2)</f>
-        <v>0.20209156340629467</v>
+        <v>0.50084029390615126</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D3" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">SQRT((INDIRECT(ADDRESS(C3+1,3,,,"bus")) - INDIRECT(ADDRESS(B3+1,3,,,"bus")))^2 + (INDIRECT(ADDRESS(C3+1,4,,,"bus")) - INDIRECT(ADDRESS(B3+1,4,,,"bus")))^2)</f>
-        <v>0.69727756309808198</v>
+        <v>0.79700752819531162</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">SQRT((INDIRECT(ADDRESS(C6+1,3,,,"bus")) - INDIRECT(ADDRESS(B6+1,3,,,"bus")))^2 + (INDIRECT(ADDRESS(C6+1,4,,,"bus")) - INDIRECT(ADDRESS(B6+1,4,,,"bus")))^2)</f>
-        <v>0.73026707443236061</v>
+        <v>0.48771405556944858</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">SQRT((INDIRECT(ADDRESS(C9+1,3,,,"bus")) - INDIRECT(ADDRESS(B9+1,3,,,"bus")))^2 + (INDIRECT(ADDRESS(C9+1,4,,,"bus")) - INDIRECT(ADDRESS(B9+1,4,,,"bus")))^2)</f>
-        <v>0.94828740369151776</v>
+        <v>0.99304783369181127</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="D26" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">SQRT((INDIRECT(ADDRESS(C26+1,3,,,"bus")) - INDIRECT(ADDRESS(B26+1,3,,,"bus")))^2 + (INDIRECT(ADDRESS(C26+1,4,,,"bus")) - INDIRECT(ADDRESS(B26+1,4,,,"bus")))^2)</f>
-        <v>1.1751774334116523</v>
+        <v>1.1722444284363216</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="D29" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">SQRT((INDIRECT(ADDRESS(C29+1,3,,,"bus")) - INDIRECT(ADDRESS(B29+1,3,,,"bus")))^2 + (INDIRECT(ADDRESS(C29+1,4,,,"bus")) - INDIRECT(ADDRESS(B29+1,4,,,"bus")))^2)</f>
-        <v>7.5604232685742886E-2</v>
+        <v>0.49961585243064527</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="D35" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">SQRT((INDIRECT(ADDRESS(C35+1,3,,,"bus")) - INDIRECT(ADDRESS(B35+1,3,,,"bus")))^2 + (INDIRECT(ADDRESS(C35+1,4,,,"bus")) - INDIRECT(ADDRESS(B35+1,4,,,"bus")))^2)</f>
-        <v>4.2236879619593113</v>
+        <v>4.1788138269130863</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2863,7 +2863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC3A51A-940B-C84F-8BEB-E5CE6E0F1306}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/NetworkModels/network_Nahman_Peric_2S23H.xlsx
+++ b/NetworkModels/network_Nahman_Peric_2S23H.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manoncornet/Documents/University/TFE/Bilevel_DNEP/NetworkModels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE330B-9FDC-EA45-A1BB-13D7C2F305FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A932D3-5E41-A141-961C-E8EAF12E0174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11420" yWindow="-20580" windowWidth="23780" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="2" r:id="rId1"/>
@@ -125,10 +125,10 @@
     <t>Tulip</t>
   </si>
   <si>
-    <t>Poppy</t>
+    <t>Poppy AAC (1/0)</t>
   </si>
   <si>
-    <t>Oxlip</t>
+    <t>Oxlip AAC (4/0)</t>
   </si>
   <si>
     <t>name</t>
@@ -413,10 +413,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>8.8249999999999993</c:v>
+                  <c:v>8.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.85</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.0109999999999992</c:v>
@@ -470,7 +470,7 @@
                   <c:v>8.8680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.1</c:v>
+                  <c:v>8.8249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>9.0389999999999997</c:v>
@@ -536,7 +536,7 @@
                   <c:v>4.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.6</c:v>
+                  <c:v>6.5549999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5.5979999999999999</c:v>
@@ -548,7 +548,7 @@
                   <c:v>5.7830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.2119999999999997</c:v>
+                  <c:v>6.5119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5.2549999999999999</c:v>
@@ -1677,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1723,7 +1723,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>8.8249999999999993</v>
+        <v>8.5250000000000004</v>
       </c>
       <c r="D2">
         <v>6.0549999999999997</v>
@@ -1747,7 +1747,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>8.85</v>
+        <v>8.4</v>
       </c>
       <c r="D3">
         <v>8.1999999999999993</v>
@@ -2086,7 +2086,7 @@
         <v>9.3249999999999993</v>
       </c>
       <c r="D17">
-        <v>6.6</v>
+        <v>6.5549999999999997</v>
       </c>
       <c r="E17">
         <v>0.32</v>
@@ -2179,10 +2179,10 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>9.1</v>
+        <v>8.8249999999999993</v>
       </c>
       <c r="D21">
-        <v>6.2119999999999997</v>
+        <v>6.5119999999999996</v>
       </c>
       <c r="E21">
         <v>0.32</v>
@@ -2285,7 +2285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="150" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="D2" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">SQRT((INDIRECT(ADDRESS(C2+1,3,,,"bus")) - INDIRECT(ADDRESS(B2+1,3,,,"bus")))^2 + (INDIRECT(ADDRESS(C2+1,4,,,"bus")) - INDIRECT(ADDRESS(B2+1,4,,,"bus")))^2)</f>
-        <v>0.50084029390615126</v>
+        <v>0.20209156340629467</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D3" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">SQRT((INDIRECT(ADDRESS(C3+1,3,,,"bus")) - INDIRECT(ADDRESS(B3+1,3,,,"bus")))^2 + (INDIRECT(ADDRESS(C3+1,4,,,"bus")) - INDIRECT(ADDRESS(B3+1,4,,,"bus")))^2)</f>
-        <v>0.79700752819531162</v>
+        <v>0.69727756309808198</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">SQRT((INDIRECT(ADDRESS(C6+1,3,,,"bus")) - INDIRECT(ADDRESS(B6+1,3,,,"bus")))^2 + (INDIRECT(ADDRESS(C6+1,4,,,"bus")) - INDIRECT(ADDRESS(B6+1,4,,,"bus")))^2)</f>
-        <v>0.48771405556944858</v>
+        <v>0.73026707443236061</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">SQRT((INDIRECT(ADDRESS(C9+1,3,,,"bus")) - INDIRECT(ADDRESS(B9+1,3,,,"bus")))^2 + (INDIRECT(ADDRESS(C9+1,4,,,"bus")) - INDIRECT(ADDRESS(B9+1,4,,,"bus")))^2)</f>
-        <v>0.99304783369181127</v>
+        <v>0.94828740369151776</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="D26" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">SQRT((INDIRECT(ADDRESS(C26+1,3,,,"bus")) - INDIRECT(ADDRESS(B26+1,3,,,"bus")))^2 + (INDIRECT(ADDRESS(C26+1,4,,,"bus")) - INDIRECT(ADDRESS(B26+1,4,,,"bus")))^2)</f>
-        <v>1.1722444284363216</v>
+        <v>1.1751774334116523</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="D29" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">SQRT((INDIRECT(ADDRESS(C29+1,3,,,"bus")) - INDIRECT(ADDRESS(B29+1,3,,,"bus")))^2 + (INDIRECT(ADDRESS(C29+1,4,,,"bus")) - INDIRECT(ADDRESS(B29+1,4,,,"bus")))^2)</f>
-        <v>0.49961585243064527</v>
+        <v>7.5604232685742886E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="D35" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">SQRT((INDIRECT(ADDRESS(C35+1,3,,,"bus")) - INDIRECT(ADDRESS(B35+1,3,,,"bus")))^2 + (INDIRECT(ADDRESS(C35+1,4,,,"bus")) - INDIRECT(ADDRESS(B35+1,4,,,"bus")))^2)</f>
-        <v>4.1788138269130863</v>
+        <v>4.2236879619593113</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2863,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC3A51A-940B-C84F-8BEB-E5CE6E0F1306}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/NetworkModels/network_Nahman_Peric_2S23H.xlsx
+++ b/NetworkModels/network_Nahman_Peric_2S23H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manoncornet/Documents/University/TFE/Bilevel_DNEP/NetworkModels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A932D3-5E41-A141-961C-E8EAF12E0174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F06019-723E-FF46-B661-D1A444191D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="-20580" windowWidth="23780" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9540" yWindow="-20580" windowWidth="23780" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="2" r:id="rId1"/>
@@ -125,13 +125,13 @@
     <t>Tulip</t>
   </si>
   <si>
-    <t>Poppy AAC (1/0)</t>
+    <t>name</t>
   </si>
   <si>
-    <t>Oxlip AAC (4/0)</t>
+    <t>Poppy</t>
   </si>
   <si>
-    <t>name</t>
+    <t>Oxlip</t>
   </si>
 </sst>
 </file>
@@ -2864,7 +2864,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2883,7 +2883,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>9.35</v>
@@ -2935,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>13.26</v>
